--- a/examples/EMTF_vu13p_r23/src/link_map_r23.xlsx
+++ b/examples/EMTF_vu13p_r23/src/link_map_r23.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="116">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
   <si>
-    <t xml:space="preserve">boards/vu13p_r1_gty</t>
+    <t xml:space="preserve">boards/vu13p_r23_gty</t>
   </si>
   <si>
     <t xml:space="preserve">// file</t>
@@ -307,6 +307,9 @@
     <t xml:space="preserve">GE11</t>
   </si>
   <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
     <t xml:space="preserve">tx</t>
   </si>
   <si>
@@ -316,25 +319,31 @@
     <t xml:space="preserve">GMT</t>
   </si>
   <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME0</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">ME0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
     <t xml:space="preserve">rpc</t>
   </si>
   <si>
     <t xml:space="preserve">RPC</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
+    <t xml:space="preserve">slink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAQ</t>
   </si>
   <si>
     <t xml:space="preserve">35</t>
@@ -359,15 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve">iRPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAQ</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -451,6 +451,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -512,7 +519,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,15 +636,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,7 +688,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006C3B"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -718,10 +745,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P54" activeCellId="0" sqref="P54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O120" activeCellId="0" sqref="O120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2616,7 +2643,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>90</v>
@@ -2641,16 +2668,16 @@
         <v>0</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N42" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>25</v>
@@ -2658,13 +2685,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>66</v>
+        <v>96</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>90</v>
@@ -2676,29 +2703,29 @@
         <v>156.25</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H43" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N43" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2736,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>90</v>
@@ -2717,8 +2744,8 @@
       <c r="E44" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>92</v>
+      <c r="F44" s="23" t="n">
+        <v>156.25</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>93</v>
@@ -2729,32 +2756,32 @@
       <c r="I44" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J44" s="27"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="27" t="n">
         <v>1</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>90</v>
@@ -2766,29 +2793,29 @@
         <v>156.25</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H45" s="28" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,7 +2826,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>90</v>
@@ -2814,40 +2841,37 @@
         <v>93</v>
       </c>
       <c r="H46" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="J46" s="27"/>
       <c r="K46" s="27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P46" s="1" t="n">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>90</v>
@@ -2859,29 +2883,29 @@
         <v>156.25</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H47" s="28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N47" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,27 +2924,27 @@
       <c r="E48" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>92</v>
+      <c r="F48" s="23" t="n">
+        <v>156.25</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>93</v>
       </c>
       <c r="H48" s="23" t="n">
-        <v>11</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="J48" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="9"/>
       <c r="K48" s="27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N48" s="14" t="s">
         <v>28</v>
@@ -2931,12 +2955,12 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>100</v>
       </c>
       <c r="D49" s="28" t="s">
@@ -2949,23 +2973,23 @@
         <v>156.25</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H49" s="28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N49" s="14" t="s">
         <v>28</v>
@@ -2982,7 +3006,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>90</v>
@@ -2997,37 +3021,40 @@
         <v>93</v>
       </c>
       <c r="H50" s="23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J50" s="27"/>
       <c r="K50" s="27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>90</v>
@@ -3039,29 +3066,29 @@
         <v>156.25</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H51" s="28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N51" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>90</v>
@@ -3087,37 +3114,37 @@
         <v>93</v>
       </c>
       <c r="H52" s="23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J52" s="27"/>
       <c r="K52" s="27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N52" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>38</v>
+        <v>96</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>90</v>
@@ -3129,88 +3156,85 @@
         <v>156.25</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H53" s="28" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N53" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I54" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31" t="n">
-        <v>0</v>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27" t="n">
+        <v>2</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N54" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P54" s="1" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>32</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>90</v>
@@ -3222,85 +3246,85 @@
         <v>156.25</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H55" s="28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N55" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="I56" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H56" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31" t="n">
-        <v>1</v>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27" t="n">
+        <v>3</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>90</v>
@@ -3312,85 +3336,88 @@
         <v>156.25</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H57" s="28" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="29" t="s">
+      <c r="A58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G58" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H58" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" s="31" t="s">
+      <c r="G58" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O58" s="14" t="s">
-        <v>32</v>
+      <c r="P58" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>39</v>
+        <v>96</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>90</v>
@@ -3402,85 +3429,85 @@
         <v>156.25</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H59" s="28" t="n">
         <v>14</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9" t="n">
         <v>14</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N59" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="25" t="s">
+      <c r="A60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M60" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H60" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="L60" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M60" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="N60" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>95</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>34</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>90</v>
@@ -3492,461 +3519,446 @@
         <v>156.25</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H61" s="28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="28" t="n">
+        <v>16</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N61" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K62" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O62" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P62" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J64" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K64" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M64" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="N64" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K65" s="10" t="n">
-        <v>0</v>
+      <c r="A65" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="28" t="n">
+        <v>17</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9" t="n">
+        <v>17</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M65" s="14" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
-        <v>20</v>
+      <c r="A66" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C66" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="18" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M68" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J66" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M66" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P66" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="17" t="s">
+      <c r="N68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J67" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K67" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M67" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N67" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="18" t="s">
+      <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="18" t="s">
+      <c r="E69" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H68" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J68" s="15" t="n">
+      <c r="H69" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="K68" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M68" s="14" t="s">
+      <c r="K69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M69" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N68" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="N69" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="18" t="s">
+      <c r="E70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J69" s="15" t="n">
+      <c r="H70" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="K69" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M69" s="14" t="s">
+      <c r="K70" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N69" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O69" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J70" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K70" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M70" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="N70" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P70" s="1" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,10 +3969,10 @@
         <v>21</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>24</v>
@@ -3969,31 +3981,34 @@
         <v>25</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J71" s="15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K71" s="15" t="n">
         <v>0</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M71" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N71" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O71" s="14" t="s">
-        <v>98</v>
+      <c r="P71" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,10 +4019,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>24</v>
@@ -4016,31 +4031,31 @@
         <v>25</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J72" s="15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N72" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,7 +4066,7 @@
         <v>21</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>35</v>
@@ -4066,651 +4081,648 @@
         <v>36</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J73" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K73" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K75" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K76" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K77" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="K73" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" s="14" t="s">
+      <c r="K78" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M73" s="14" t="s">
+      <c r="M78" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N73" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73" s="14" t="s">
+      <c r="N78" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="21" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D79" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="22" t="s">
+      <c r="E79" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="21" t="s">
+      <c r="H79" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I74" s="21" t="s">
+      <c r="I79" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J74" s="19" t="n">
+      <c r="J79" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="K74" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="14" t="s">
+      <c r="K79" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="M74" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N74" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O74" s="14" t="s">
+      <c r="M79" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="P74" s="1" t="n">
+      <c r="P79" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="21" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D80" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="22" t="s">
+      <c r="E80" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H80" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I80" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J75" s="19" t="n">
+      <c r="J80" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="K75" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" s="14" t="s">
+      <c r="K80" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="M75" s="14" t="s">
+      <c r="M80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N75" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O75" s="14" t="s">
+      <c r="N80" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="21" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D81" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="22" t="s">
+      <c r="E81" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="H81" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I76" s="21" t="s">
+      <c r="I81" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J76" s="19" t="n">
+      <c r="J81" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="K76" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" s="14" t="s">
+      <c r="K81" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="M76" s="14" t="s">
+      <c r="M81" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N76" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O76" s="14" t="s">
+      <c r="N81" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" s="22" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="22" t="s">
+      <c r="E82" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H82" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I77" s="21" t="s">
+      <c r="I82" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J77" s="19" t="n">
+      <c r="J82" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="K77" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" s="14" t="s">
+      <c r="K82" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="M77" s="14" t="s">
+      <c r="M82" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N77" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O77" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="18" t="s">
+      <c r="N82" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="18" t="s">
+      <c r="E83" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H78" s="17" t="s">
+      <c r="H83" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I78" s="17" t="s">
+      <c r="I83" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J78" s="15" t="n">
+      <c r="J83" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="K78" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" s="14" t="s">
+      <c r="K83" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N78" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O78" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P78" s="1" t="n">
+      <c r="M83" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O83" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P83" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="17" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D84" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="18" t="s">
+      <c r="E84" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="17" t="s">
+      <c r="H84" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I79" s="17" t="s">
+      <c r="I84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J79" s="15" t="n">
+      <c r="J84" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="K79" s="15" t="n">
+      <c r="K84" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L79" s="14" t="s">
+      <c r="L84" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M79" s="14" t="s">
+      <c r="M84" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N79" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O79" s="14" t="s">
+      <c r="N84" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O84" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="18" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="18" t="s">
+      <c r="E85" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H85" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I80" s="17" t="s">
+      <c r="I85" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J80" s="15" t="n">
+      <c r="J85" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="K80" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" s="14" t="s">
+      <c r="K85" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M80" s="14" t="s">
+      <c r="M85" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N80" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81" s="18" t="s">
+      <c r="N85" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O85" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="18" t="s">
+      <c r="E86" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="H86" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="I86" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J81" s="15" t="n">
+      <c r="J86" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="K81" s="15" t="n">
+      <c r="K86" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L81" s="14" t="s">
+      <c r="L86" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M81" s="14" t="s">
+      <c r="M86" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N81" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O81" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J82" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M82" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N82" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O82" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P82" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J83" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M83" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N83" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O83" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J84" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K84" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M84" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N84" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O84" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I85" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J85" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K85" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M85" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N85" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O85" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J86" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K86" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M86" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="N86" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P86" s="1" t="n">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +4733,7 @@
         <v>21</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>23</v>
@@ -4736,28 +4748,31 @@
         <v>26</v>
       </c>
       <c r="H87" s="21" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="I87" s="21" t="s">
         <v>74</v>
       </c>
       <c r="J87" s="19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K87" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N87" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,10 +4783,10 @@
         <v>21</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E88" s="22" t="s">
         <v>24</v>
@@ -4780,31 +4795,31 @@
         <v>25</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I88" s="21" t="s">
         <v>74</v>
       </c>
       <c r="J88" s="19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K88" s="19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N88" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,10 +4830,10 @@
         <v>21</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E89" s="22" t="s">
         <v>24</v>
@@ -4827,272 +4842,269 @@
         <v>25</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="I89" s="21" t="s">
         <v>74</v>
       </c>
       <c r="J89" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N89" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O89" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M90" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N90" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O90" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M91" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O91" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M92" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N92" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O92" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J93" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M93" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N93" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O93" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="K89" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" s="14" t="s">
+      <c r="K94" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M89" s="14" t="s">
+      <c r="M94" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N89" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O89" s="14" t="s">
+      <c r="N94" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O94" s="14" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I90" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J90" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K90" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M90" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N90" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O90" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="P90" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I91" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J91" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K91" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M91" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N91" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O91" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I92" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J92" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K92" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M92" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N92" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J93" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K93" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M93" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N93" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O93" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J94" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K94" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M94" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O94" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P94" s="1" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +5115,10 @@
         <v>28</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>24</v>
@@ -5115,31 +5127,34 @@
         <v>25</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="J95" s="15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K95" s="15" t="n">
         <v>0</v>
       </c>
       <c r="L95" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N95" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,10 +5165,10 @@
         <v>28</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>24</v>
@@ -5162,31 +5177,31 @@
         <v>25</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>84</v>
+        <v>108</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="J96" s="15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K96" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N96" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,172 +5212,178 @@
         <v>28</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D97" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J97" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M97" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N97" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J98" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M98" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N98" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O98" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="18" t="s">
+      <c r="E99" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H97" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J97" s="15" t="n">
+      <c r="H99" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J99" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M99" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N99" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J100" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="K97" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" s="14" t="s">
+      <c r="K100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="M97" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N97" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O97" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H98" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="L98" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M98" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N98" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O98" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P98" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F99" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H99" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L99" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M99" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N99" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O99" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H100" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="M100" s="14" t="s">
         <v>30</v>
@@ -5371,561 +5392,568 @@
         <v>28</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="28" t="s">
+      <c r="A101" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J101" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M101" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O101" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J102" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K102" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M102" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N102" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="E103" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F101" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G101" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H101" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L101" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M101" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N101" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O101" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F102" s="26" t="s">
+      <c r="F103" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G103" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H102" s="23" t="n">
+      <c r="H103" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="I102" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="L102" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M102" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N102" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O102" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F103" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H103" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9" t="n">
-        <v>4</v>
+      <c r="I103" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J103" s="27"/>
+      <c r="K103" s="35" t="n">
+        <v>0</v>
       </c>
       <c r="L103" s="14" t="s">
         <v>73</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N103" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" s="23" t="s">
+      <c r="A104" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H104" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="I104" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27" t="n">
-        <v>0</v>
+      <c r="F104" s="28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H104" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9" t="n">
+        <v>4</v>
       </c>
       <c r="L104" s="14" t="s">
         <v>73</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N104" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="28" t="s">
-        <v>95</v>
+      <c r="A105" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E105" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F105" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G105" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H105" s="28" t="n">
+      <c r="F105" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H105" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="I105" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9" t="n">
-        <v>5</v>
+      <c r="I105" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J105" s="27"/>
+      <c r="K105" s="35" t="n">
+        <v>1</v>
       </c>
       <c r="L105" s="14" t="s">
         <v>73</v>
       </c>
       <c r="M105" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N105" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M106" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N106" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H107" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J107" s="27"/>
+      <c r="K107" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" s="28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H108" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M108" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N108" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H109" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J109" s="27"/>
+      <c r="K109" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M109" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N105" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O105" s="14" t="s">
+      <c r="N109" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="25" t="s">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" s="28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N110" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O110" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D111" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E111" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F106" s="26" t="s">
+      <c r="F111" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I106" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L106" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O106" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P106" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E107" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G107" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H107" s="28" t="n">
-        <v>6</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="L107" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M107" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N107" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O107" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H108" s="23" t="n">
-        <v>7</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="L108" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M108" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N108" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O108" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E109" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F109" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G109" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H109" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L109" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M109" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N109" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O109" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H110" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L110" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M110" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N110" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O110" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E111" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F111" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H111" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9" t="n">
-        <v>8</v>
+      <c r="H111" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="I111" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J111" s="27"/>
+      <c r="K111" s="35" t="n">
+        <v>4</v>
       </c>
       <c r="L111" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="P111" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" s="23" t="s">
+      <c r="A112" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F112" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G112" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H112" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="I112" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27" t="n">
-        <v>4</v>
+      <c r="F112" s="28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9" t="n">
+        <v>12</v>
       </c>
       <c r="L112" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N112" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="D113" s="28" t="s">
         <v>90</v>
@@ -5937,62 +5965,62 @@
         <v>156.25</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H113" s="28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L113" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N113" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" s="25" t="s">
+      <c r="A114" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E114" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F114" s="30" t="s">
+      <c r="F114" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G114" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H114" s="29" t="n">
+      <c r="G114" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H114" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="I114" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31" t="n">
-        <v>4</v>
+      <c r="I114" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33" t="n">
+        <v>0</v>
       </c>
       <c r="L114" s="14" t="s">
         <v>33</v>
@@ -6011,132 +6039,132 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="28" t="s">
+      <c r="A115" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="E115" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F115" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G115" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H115" s="28" t="n">
-        <v>18</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9" t="n">
-        <v>18</v>
+      <c r="F115" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H115" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I115" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J115" s="33"/>
+      <c r="K115" s="33" t="n">
+        <v>1</v>
       </c>
       <c r="L115" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N115" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="29" t="s">
+      <c r="A116" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F116" s="30" t="s">
+      <c r="F116" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G116" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H116" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="I116" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="J116" s="31"/>
-      <c r="K116" s="31" t="n">
-        <v>0</v>
+      <c r="G116" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H116" s="31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I116" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33" t="n">
+        <v>2</v>
       </c>
       <c r="L116" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N116" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="25" t="s">
+      <c r="A117" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D117" s="28" t="s">
+      <c r="D117" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E117" s="28" t="s">
+      <c r="E117" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F117" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G117" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H117" s="28" t="n">
-        <v>21</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9" t="n">
-        <v>21</v>
+      <c r="F117" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I117" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33" t="n">
+        <v>3</v>
       </c>
       <c r="L117" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N117" s="14" t="s">
         <v>28</v>
@@ -6146,364 +6174,141 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D118" s="29" t="s">
+      <c r="A118" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F118" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G118" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H118" s="29" t="n">
+      <c r="F118" s="31" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G118" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H118" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L118" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N118" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O118" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P118" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F119" s="31" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H119" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="I119" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J119" s="9"/>
+      <c r="K119" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N119" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O119" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" s="31" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H120" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I120" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="I118" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="J118" s="31"/>
-      <c r="K118" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L118" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M118" s="14" t="s">
+      <c r="L120" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N118" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O118" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F119" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G119" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H119" s="28" t="n">
-        <v>20</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L119" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M119" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N119" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O119" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G120" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H120" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="I120" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="J120" s="31"/>
-      <c r="K120" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L120" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M120" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="N120" s="14" t="s">
         <v>28</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E121" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F121" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G121" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H121" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L121" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M121" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N121" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O121" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E122" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F122" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G122" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H122" s="28" t="n">
-        <v>22</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L122" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M122" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N122" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O122" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P122" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E123" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F123" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G123" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H123" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L123" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M123" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N123" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O123" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E124" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F124" s="28" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G124" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H124" s="28" t="n">
-        <v>19</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L124" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M124" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N124" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O124" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F125" s="18" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H125" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N125" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O125" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
